--- a/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
@@ -122,7 +122,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -135,8 +135,18 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF5F5F5"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFFF"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="21">
+  <x:borders count="15">
     <x:border>
       <x:left/>
       <x:right/>
@@ -301,80 +311,12 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -384,42 +326,8 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -427,16 +335,13 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -445,25 +350,19 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -523,10 +422,6 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -535,27 +430,31 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -909,16 +808,16 @@
       <x:c r="C7" s="19"/>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="19"/>
-      <x:c r="F7" s="20"/>
+      <x:c r="F7" s="19"/>
     </x:row>
     <x:row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="B8" s="21" t="s">
+      <x:c r="B8" s="20" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C8" s="22"/>
-      <x:c r="D8" s="22"/>
-      <x:c r="E8" s="22"/>
-      <x:c r="F8" s="23"/>
+      <x:c r="C8" s="21"/>
+      <x:c r="D8" s="21"/>
+      <x:c r="E8" s="21"/>
+      <x:c r="F8" s="22"/>
     </x:row>
     <x:row r="9" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="B9" s="7" t="s">
@@ -933,21 +832,21 @@
       <x:c r="E9" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="24" t="s">
+      <x:c r="F9" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <x:c r="B10" s="4" t="s">
+      <x:c r="B10" s="23" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="C10" s="24" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
+      <x:c r="D10" s="24" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="E10" s="24" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="25" t="s">
@@ -958,16 +857,84 @@
       <x:c r="B11" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C11" s="27" t="s">
+      <x:c r="C11" s="26" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D11" s="27" t="s">
+      <x:c r="D11" s="26" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E11" s="27" t="s">
+      <x:c r="E11" s="26" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F11" s="28" t="s">
+      <x:c r="F11" s="27" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="B12" s="28" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="28" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="28" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="28" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="28" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="B13" s="27" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="27" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="27" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="B14" s="28" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C14" s="28" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="28" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="28" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="28" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="B15" s="27" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C15" s="27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="27" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="27" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>

--- a/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3C94C-8292-4DF8-B853-AF92D293BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="4125" yWindow="5190" windowWidth="21600" windowHeight="12840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,65 +18,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Generated for:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John  Snow</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Generated by: </x:t>
-  </x:si>
-  <x:si>
-    <x:t>John Snow (Client)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Report</x:t>
   </x:si>
   <x:si>
-    <x:t>Client</x:t>
+    <x:t>Seller</x:t>
   </x:si>
   <x:si>
-    <x:t>First name</x:t>
+    <x:t>Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>Last name</x:t>
+    <x:t>Quantity</x:t>
   </x:si>
   <x:si>
-    <x:t>Day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Office</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Additional Info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Snow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.06.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>King's Landing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Killed the Queen on working hours</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Didn't piss of the Wall</x:t>
+    <x:t>Notes</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </x:numFmts>
-  <x:fonts count="6" x14ac:knownFonts="1">
+  <x:fonts count="8" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -115,6 +80,20 @@
       <x:charset val="204"/>
     </x:font>
     <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color theme="0" tint="-0.499984740745262"/>
+      <x:name val="Times New Roman"/>
+      <x:family val="1"/>
+      <x:charset val="204"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -122,7 +101,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -135,18 +114,8 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF5F5F5"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFFFF"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="15">
+  <x:borders count="19">
     <x:border>
       <x:left/>
       <x:right/>
@@ -162,7 +131,9 @@
       <x:top style="thin">
         <x:color theme="0" tint="-0.499984740745262"/>
       </x:top>
-      <x:bottom/>
+      <x:bottom style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:bottom>
       <x:diagonal/>
     </x:border>
     <x:border>
@@ -171,295 +142,399 @@
       <x:top style="thin">
         <x:color theme="0" tint="-0.499984740745262"/>
       </x:top>
-      <x:bottom/>
+      <x:bottom style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
       <x:diagonal/>
     </x:border>
     <x:border>
       <x:left/>
       <x:right style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
         <x:color theme="0" tint="-0.499984740745262"/>
       </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:left>
+      <x:right/>
+      <x:top/>
       <x:bottom/>
       <x:diagonal/>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:bottom>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
       <x:diagonal/>
     </x:border>
     <x:border>
       <x:left/>
       <x:right/>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal/>
     </x:border>
     <x:border>
       <x:left/>
       <x:right style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:bottom>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom/>
       <x:diagonal/>
     </x:border>
     <x:border>
       <x:left/>
-      <x:right style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:right>
-      <x:top/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top/>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top/>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
       <x:diagonal/>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FF000000"/>
+        <x:color theme="0" tint="-0.499984740745262"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color theme="0" tint="-0.499984740745262"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="13">
+  <x:cellStyleXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -475,9 +550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,9 +590,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -760,188 +835,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:I11"/>
+  <x:dimension ref="A2:K14"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <x:selection activeCell="I10" sqref="I10"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <x:selection activeCell="E1" sqref="E1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.853482" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="31.853482" style="0" customWidth="1"/>
-    <x:col min="7" max="9" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="2" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="6" t="s">
+    <x:row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="C3" s="1"/>
+      <x:c r="D3" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="B7" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="6"/>
-      <x:c r="C2" s="6" t="s">
+      <x:c r="C7" s="21"/>
+      <x:c r="D7" s="21"/>
+      <x:c r="E7" s="21"/>
+      <x:c r="F7" s="22"/>
+      <x:c r="J7" s="23"/>
+      <x:c r="K7" s="23"/>
+    </x:row>
+    <x:row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="B8" s="24" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="6"/>
+      <x:c r="C8" s="25"/>
+      <x:c r="D8" s="25"/>
+      <x:c r="E8" s="25"/>
+      <x:c r="F8" s="26"/>
+      <x:c r="G8" s="27"/>
+      <x:c r="H8" s="28"/>
     </x:row>
-    <x:row r="3" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="6" t="s">
+    <x:row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="B9" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C9" s="5"/>
+      <x:c r="D9" s="5"/>
+      <x:c r="E9" s="5"/>
+      <x:c r="F9" s="29"/>
+      <x:c r="G9" s="13"/>
+      <x:c r="H9" s="14"/>
+    </x:row>
+    <x:row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="F10" s="30"/>
+    </x:row>
+    <x:row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="B11" s="31"/>
+      <x:c r="C11" s="31"/>
+      <x:c r="D11" s="31"/>
+      <x:c r="E11" s="31"/>
+      <x:c r="F11" s="32"/>
+    </x:row>
+    <x:row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="B12" s="19" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="6"/>
-      <x:c r="C3" s="6" t="s">
+      <x:c r="C12" s="19"/>
+      <x:c r="D12" s="19"/>
+      <x:c r="E12" s="19"/>
+      <x:c r="F12" s="19"/>
+      <x:c r="G12" s="19"/>
+      <x:c r="H12" s="19"/>
+      <x:c r="I12" s="19"/>
+      <x:c r="J12" s="19"/>
+      <x:c r="K12" s="19"/>
+    </x:row>
+    <x:row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="B13" s="33" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D3" s="6"/>
+      <x:c r="C13" s="33"/>
+      <x:c r="D13" s="33"/>
+      <x:c r="E13" s="33"/>
+      <x:c r="F13" s="33"/>
+      <x:c r="G13" s="33"/>
+      <x:c r="H13" s="33"/>
+      <x:c r="I13" s="33"/>
+      <x:c r="J13" s="33"/>
+      <x:c r="K13" s="33"/>
     </x:row>
-    <x:row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="B7" s="19" t="s">
+    <x:row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="B14" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C7" s="19"/>
-      <x:c r="D7" s="19"/>
-      <x:c r="E7" s="19"/>
-      <x:c r="F7" s="19"/>
-    </x:row>
-    <x:row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="B8" s="20" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="21"/>
-      <x:c r="D8" s="21"/>
-      <x:c r="E8" s="21"/>
-      <x:c r="F8" s="22"/>
-    </x:row>
-    <x:row r="9" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="B9" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E9" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F9" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <x:c r="B10" s="23" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C10" s="24" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="24" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="24" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F10" s="25" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <x:c r="B11" s="26" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="26" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D11" s="26" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E11" s="26" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F11" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9">
-      <x:c r="B12" s="28" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C12" s="28" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D12" s="28" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E12" s="28" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F12" s="28" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:9">
-      <x:c r="B13" s="27" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D13" s="27" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E13" s="27" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F13" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:9">
-      <x:c r="B14" s="28" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C14" s="28" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D14" s="28" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E14" s="28" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="28" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:9">
-      <x:c r="B15" s="27" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D15" s="27" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E15" s="27" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="C14" s="19"/>
+      <x:c r="D14" s="19"/>
+      <x:c r="E14" s="19"/>
+      <x:c r="F14" s="19"/>
+      <x:c r="G14" s="19"/>
+      <x:c r="H14" s="19"/>
+      <x:c r="I14" s="19"/>
+      <x:c r="J14" s="19"/>
+      <x:c r="K14" s="19"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
+  <x:mergeCells count="8">
     <x:mergeCell ref="B7:F7"/>
     <x:mergeCell ref="B8:F8"/>
+    <x:mergeCell ref="G8:H8"/>
+    <x:mergeCell ref="B9:F9"/>
+    <x:mergeCell ref="G9:H9"/>
+    <x:mergeCell ref="B12:K12"/>
+    <x:mergeCell ref="B13:K13"/>
+    <x:mergeCell ref="B14:K14"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/Report.xlsx
@@ -3,9 +3,9 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3C94C-8292-4DF8-B853-AF92D293BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5EAE7-5808-4999-B134-6FDAA9633315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4125" yWindow="5190" windowWidth="21600" windowHeight="12840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,70 @@
     <x:t>Report</x:t>
   </x:si>
   <x:si>
+    <x:t>Purchase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Seller</x:t>
   </x:si>
   <x:si>
+    <x:t>Quantity</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>Quantity</x:t>
-  </x:si>
-  <x:si>
     <x:t>Notes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mourning Fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darkness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount gained increased by Dark Thirst after purchase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pom slice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1 Lv. to a random Boon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centaur Heart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Well of Charon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Well</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braid of Atlas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casts Deal +35% damage for the next five encounters.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expiring Deal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ensure any goods offered by Charon cost less for the next six encounters.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HydraLite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Restore 10% HP whenever you enter a Location for the next three encounters</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -38,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="8" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -58,36 +112,7 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:sz val="14"/>
-      <x:color rgb="FF0070C0"/>
-      <x:name val="Times New Roman"/>
-      <x:family val="1"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color theme="1"/>
-      <x:name val="Times New Roman"/>
-      <x:family val="1"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color theme="0" tint="-0.499984740745262"/>
-      <x:name val="Times New Roman"/>
-      <x:family val="1"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
       <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
       <x:color theme="0" tint="-0.499984740745262"/>
       <x:name val="Times New Roman"/>
       <x:family val="1"/>
@@ -101,7 +126,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -114,8 +139,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="19">
+  <x:borders count="7">
     <x:border>
       <x:left/>
       <x:right/>
@@ -124,15 +155,54 @@
       <x:diagonal/>
     </x:border>
     <x:border>
+      <x:left/>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top/>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
       <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
       </x:left>
       <x:right/>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal/>
     </x:border>
@@ -140,218 +210,21 @@
       <x:left/>
       <x:right/>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
+        <x:color indexed="64"/>
       </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom/>
       <x:diagonal/>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color theme="0" tint="-0.499984740745262"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -362,137 +235,75 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="34">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -500,41 +311,36 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="2">
-    <x:cellStyle name="Денежный" xfId="1" builtinId="4"/>
+  <x:cellStyles count="1">
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -839,121 +645,189 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:K14"/>
+  <x:dimension ref="B7:G11"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <x:selection activeCell="E1" sqref="E1"/>
+    <x:sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <x:selection activeCell="I5" sqref="I5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.567768" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="4.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="70.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="1"/>
-      <x:c r="C2" s="1"/>
-      <x:c r="D2" s="1"/>
+    <x:row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="B7" s="12" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="12"/>
+      <x:c r="D7" s="12"/>
+      <x:c r="E7" s="12"/>
+      <x:c r="F7" s="12"/>
+      <x:c r="G7" s="12"/>
     </x:row>
-    <x:row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="1"/>
-      <x:c r="C3" s="1"/>
-      <x:c r="D3" s="1"/>
+    <x:row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="B8" s="12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="13"/>
+      <x:c r="D8" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E8" s="13"/>
+      <x:c r="F8" s="13"/>
+      <x:c r="G8" s="14"/>
     </x:row>
-    <x:row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="B7" s="21" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C7" s="21"/>
-      <x:c r="D7" s="21"/>
-      <x:c r="E7" s="21"/>
-      <x:c r="F7" s="22"/>
-      <x:c r="J7" s="23"/>
-      <x:c r="K7" s="23"/>
+    <x:row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="B9" s="15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="15" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G9" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="B8" s="24" t="s">
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="B10" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="18" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E10" s="19">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F10" s="19">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G10" s="19" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="B11" s="20" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="21" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E11" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F11" s="21">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G11" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="B12" s="22" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="22" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="22">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C8" s="25"/>
-      <x:c r="D8" s="25"/>
-      <x:c r="E8" s="25"/>
-      <x:c r="F8" s="26"/>
-      <x:c r="G8" s="27"/>
-      <x:c r="H8" s="28"/>
+      <x:c r="F12" s="22">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G12" s="22"/>
     </x:row>
-    <x:row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="B9" s="4" t="s">
+    <x:row r="13" spans="1:8">
+      <x:c r="B13" s="22" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="22" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E13" s="22">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C9" s="5"/>
-      <x:c r="D9" s="5"/>
-      <x:c r="E9" s="5"/>
-      <x:c r="F9" s="29"/>
-      <x:c r="G9" s="13"/>
-      <x:c r="H9" s="14"/>
+      <x:c r="F13" s="22">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G13" s="22" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="F10" s="30"/>
+    <x:row r="14" spans="1:8">
+      <x:c r="B14" s="22" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C14" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D14" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E14" s="22">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F14" s="22">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G14" s="22" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="B11" s="31"/>
-      <x:c r="C11" s="31"/>
-      <x:c r="D11" s="31"/>
-      <x:c r="E11" s="31"/>
-      <x:c r="F11" s="32"/>
-    </x:row>
-    <x:row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="B12" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C12" s="19"/>
-      <x:c r="D12" s="19"/>
-      <x:c r="E12" s="19"/>
-      <x:c r="F12" s="19"/>
-      <x:c r="G12" s="19"/>
-      <x:c r="H12" s="19"/>
-      <x:c r="I12" s="19"/>
-      <x:c r="J12" s="19"/>
-      <x:c r="K12" s="19"/>
-    </x:row>
-    <x:row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="B13" s="33" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C13" s="33"/>
-      <x:c r="D13" s="33"/>
-      <x:c r="E13" s="33"/>
-      <x:c r="F13" s="33"/>
-      <x:c r="G13" s="33"/>
-      <x:c r="H13" s="33"/>
-      <x:c r="I13" s="33"/>
-      <x:c r="J13" s="33"/>
-      <x:c r="K13" s="33"/>
-    </x:row>
-    <x:row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="B14" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C14" s="19"/>
-      <x:c r="D14" s="19"/>
-      <x:c r="E14" s="19"/>
-      <x:c r="F14" s="19"/>
-      <x:c r="G14" s="19"/>
-      <x:c r="H14" s="19"/>
-      <x:c r="I14" s="19"/>
-      <x:c r="J14" s="19"/>
-      <x:c r="K14" s="19"/>
+    <x:row r="15" spans="1:8">
+      <x:c r="B15" s="22" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C15" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D15" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E15" s="22">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F15" s="22">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G15" s="22" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="8">
-    <x:mergeCell ref="B7:F7"/>
-    <x:mergeCell ref="B8:F8"/>
-    <x:mergeCell ref="G8:H8"/>
-    <x:mergeCell ref="B9:F9"/>
-    <x:mergeCell ref="G9:H9"/>
-    <x:mergeCell ref="B12:K12"/>
-    <x:mergeCell ref="B13:K13"/>
-    <x:mergeCell ref="B14:K14"/>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="B7:G7"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="D8:G8"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
